--- a/Documentation/Scrum/ProductLog.xlsx
+++ b/Documentation/Scrum/ProductLog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ali\Documents\cst247\Documentation\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ali\Documents\cst247\MS\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>User Stories</t>
   </si>
@@ -59,76 +59,40 @@
     <t>Project Title: Minesweeper</t>
   </si>
   <si>
-    <t>As a dev, I need design documentation to properly implement project code</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Have design documentation</t>
-  </si>
-  <si>
-    <t>The project can be written</t>
-  </si>
-  <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Design Documentation</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User </t>
-  </si>
-  <si>
-    <t>log in</t>
-  </si>
-  <si>
-    <t>I can play Minesweeper</t>
-  </si>
-  <si>
-    <t>Registration Page</t>
   </si>
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>registration</t>
+    <t>Make every Gameboard component into a partial view</t>
   </si>
   <si>
-    <t>I can register an account</t>
+    <t>Ajax Gameboard</t>
   </si>
   <si>
-    <t>Minesweeper</t>
+    <t>Play without refreshing the page</t>
   </si>
   <si>
-    <t>As a user, I would like to be able to register an account to login</t>
+    <t>I can have a more seamless experience</t>
   </si>
   <si>
-    <t>As a user, I need to login in order to play minesweeper</t>
+    <t>As a user I would like to be able to play Minesweeper without Refreshing the Page</t>
   </si>
   <si>
-    <t>As a user, I want to be able to play minesweeper so that I can get a high score</t>
+    <t>As a user I would like to play Minesweeper with a better functioning timer so that I can play with a more  accurate second count</t>
   </si>
   <si>
-    <t>play minesweeper</t>
+    <t>Accurate timer</t>
   </si>
   <si>
-    <t>I can see my score</t>
+    <t>Usr</t>
   </si>
   <si>
-    <t>Save and Resume</t>
+    <t>Play with accurate timer</t>
   </si>
   <si>
-    <t>As a user, I want to be able to save and resume my game.</t>
-  </si>
-  <si>
-    <t>save board state</t>
-  </si>
-  <si>
-    <t>resume from where I left off</t>
+    <t>I can have a more accurate second count</t>
   </si>
 </sst>
 </file>
@@ -331,6 +295,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,7 +309,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,31 +592,31 @@
   <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="117.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -661,11 +625,11 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -704,25 +668,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
-      <c r="H4" s="21">
-        <v>43121</v>
+      <c r="H4" s="16">
+        <v>43170</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -731,26 +695,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="21">
-        <v>43121</v>
-      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -758,80 +710,48 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="21">
-        <v>43121</v>
+      <c r="H6" s="16">
+        <v>43170</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="21">
-        <v>43121</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21">
-        <v>43121</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -23767,10 +23687,16 @@
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A856C235-C1E3-486A-AF6F-91B1EB05F3BD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>